--- a/Code/Results/Cases/Case_7_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_30/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.45778831486538</v>
+        <v>25.45778831486539</v>
       </c>
       <c r="C2">
-        <v>18.5822510441971</v>
+        <v>18.58225104419706</v>
       </c>
       <c r="D2">
         <v>2.527107194563972</v>
       </c>
       <c r="E2">
-        <v>5.997053235622267</v>
+        <v>5.997053235622323</v>
       </c>
       <c r="F2">
-        <v>43.07084306866796</v>
+        <v>43.0708430686679</v>
       </c>
       <c r="G2">
-        <v>2.094828631267974</v>
+        <v>2.094828631267971</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.673876805832078</v>
+        <v>5.673876805832141</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.20742497498424</v>
+        <v>17.20742497498423</v>
       </c>
       <c r="N2">
-        <v>14.30224321913359</v>
+        <v>14.30224321913356</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.81115023169111</v>
+        <v>23.81115023169113</v>
       </c>
       <c r="C3">
-        <v>17.28833065072423</v>
+        <v>17.28833065072422</v>
       </c>
       <c r="D3">
-        <v>2.467946778512685</v>
+        <v>2.467946778512687</v>
       </c>
       <c r="E3">
-        <v>5.988295357230418</v>
+        <v>5.988295357230402</v>
       </c>
       <c r="F3">
-        <v>41.40393906720649</v>
+        <v>41.40393906720654</v>
       </c>
       <c r="G3">
-        <v>2.107782789061247</v>
+        <v>2.107782789061512</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.70215241646604</v>
+        <v>5.702152416465994</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.37966341958094</v>
+        <v>16.37966341958095</v>
       </c>
       <c r="N3">
-        <v>14.50639848540376</v>
+        <v>14.50639848540378</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76623360052565</v>
+        <v>22.76623360052568</v>
       </c>
       <c r="C4">
-        <v>16.47717493539154</v>
+        <v>16.47717493539157</v>
       </c>
       <c r="D4">
-        <v>2.432233434065098</v>
+        <v>2.432233434064964</v>
       </c>
       <c r="E4">
-        <v>5.985315895909633</v>
+        <v>5.985315895909694</v>
       </c>
       <c r="F4">
-        <v>40.39698571014473</v>
+        <v>40.39698571014488</v>
       </c>
       <c r="G4">
-        <v>2.115889443340508</v>
+        <v>2.115889443340645</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.721791399027223</v>
+        <v>5.721791399027255</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.86634332023438</v>
+        <v>15.86634332023442</v>
       </c>
       <c r="N4">
-        <v>14.63656212494034</v>
+        <v>14.63656212494039</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.33204466944174</v>
+        <v>22.33204466944167</v>
       </c>
       <c r="C5">
-        <v>16.13913605847581</v>
+        <v>16.13913605847579</v>
       </c>
       <c r="D5">
-        <v>2.417801691538214</v>
+        <v>2.417801691538415</v>
       </c>
       <c r="E5">
-        <v>5.984689114605681</v>
+        <v>5.984689114605738</v>
       </c>
       <c r="F5">
-        <v>39.990988900544</v>
+        <v>39.99098890054372</v>
       </c>
       <c r="G5">
-        <v>2.119235293326496</v>
+        <v>2.119235293326763</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.730350289818258</v>
+        <v>5.730350289818222</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.65608236511788</v>
+        <v>15.65608236511781</v>
       </c>
       <c r="N5">
-        <v>14.69078041933825</v>
+        <v>14.69078041933808</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.25944804865323</v>
+        <v>22.25944804865328</v>
       </c>
       <c r="C6">
-        <v>16.08255413632608</v>
+        <v>16.08255413632605</v>
       </c>
       <c r="D6">
-        <v>2.415411789979663</v>
+        <v>2.415411789979597</v>
       </c>
       <c r="E6">
-        <v>5.984620074878394</v>
+        <v>5.984620074878389</v>
       </c>
       <c r="F6">
-        <v>39.92384238399676</v>
+        <v>39.92384238399694</v>
       </c>
       <c r="G6">
-        <v>2.119793533130405</v>
+        <v>2.119793533130542</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.731804593107954</v>
+        <v>5.731804593107891</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.62111021654508</v>
+        <v>15.6211102165451</v>
       </c>
       <c r="N6">
-        <v>14.69985344872312</v>
+        <v>14.69985344872321</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76041163572179</v>
+        <v>22.76041163572182</v>
       </c>
       <c r="C7">
-        <v>16.47264628641154</v>
+        <v>16.47264628641151</v>
       </c>
       <c r="D7">
-        <v>2.432038349572182</v>
+        <v>2.432038349572521</v>
       </c>
       <c r="E7">
-        <v>5.985305084610406</v>
+        <v>5.985305084610507</v>
       </c>
       <c r="F7">
-        <v>40.39149241466337</v>
+        <v>40.39149241466356</v>
       </c>
       <c r="G7">
-        <v>2.115934390361887</v>
+        <v>2.115934390362154</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.721904597849415</v>
+        <v>5.721904597849353</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.86351174049629</v>
+        <v>15.86351174049635</v>
       </c>
       <c r="N7">
-        <v>14.63728861251621</v>
+        <v>14.63728861251628</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.89711230476562</v>
+        <v>24.89711230476561</v>
       </c>
       <c r="C8">
-        <v>18.12873438543664</v>
+        <v>18.12873438543666</v>
       </c>
       <c r="D8">
-        <v>2.50656144567454</v>
+        <v>2.50656144567447</v>
       </c>
       <c r="E8">
-        <v>5.993526135542158</v>
+        <v>5.99352613554206</v>
       </c>
       <c r="F8">
-        <v>42.49275643082798</v>
+        <v>42.49275643082795</v>
       </c>
       <c r="G8">
-        <v>2.099265992940014</v>
+        <v>2.099265992940149</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.683142870509362</v>
+        <v>5.683142870509306</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>16.92316756435011</v>
       </c>
       <c r="N8">
-        <v>14.37161448072068</v>
+        <v>14.37161448072067</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.03124195896992</v>
+        <v>29.03124195896991</v>
       </c>
       <c r="C9">
-        <v>21.27208440023748</v>
+        <v>21.27208440023763</v>
       </c>
       <c r="D9">
-        <v>2.659197982081452</v>
+        <v>2.659197982081719</v>
       </c>
       <c r="E9">
-        <v>6.029436129031613</v>
+        <v>6.029436129031667</v>
       </c>
       <c r="F9">
-        <v>46.74022380934471</v>
+        <v>46.74022380934466</v>
       </c>
       <c r="G9">
-        <v>2.067593306113971</v>
+        <v>2.067593306114109</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.626050629923974</v>
+        <v>5.626050629923887</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.95501652728731</v>
+        <v>18.9550165272873</v>
       </c>
       <c r="N9">
-        <v>13.89076684817241</v>
+        <v>13.8907668481723</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.93586168872255</v>
+        <v>31.93586168872258</v>
       </c>
       <c r="C10">
-        <v>23.42564884966302</v>
+        <v>23.42564884966308</v>
       </c>
       <c r="D10">
-        <v>2.777968811826186</v>
+        <v>2.777968811826389</v>
       </c>
       <c r="E10">
-        <v>6.069054894216416</v>
+        <v>6.069054894216521</v>
       </c>
       <c r="F10">
-        <v>49.94005889561301</v>
+        <v>49.94005889561304</v>
       </c>
       <c r="G10">
-        <v>2.044626565501117</v>
+        <v>2.044626565501385</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.596970619785669</v>
+        <v>5.596970619785679</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.56941682237601</v>
+        <v>20.569416822376</v>
       </c>
       <c r="N10">
-        <v>13.565498019246</v>
+        <v>13.56549801924595</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.21591796361257</v>
+        <v>33.21591796361255</v>
       </c>
       <c r="C11">
-        <v>24.3754917312548</v>
+        <v>24.37549173125487</v>
       </c>
       <c r="D11">
-        <v>2.83416576341211</v>
+        <v>2.834165763411911</v>
       </c>
       <c r="E11">
         <v>6.090251504601471</v>
       </c>
       <c r="F11">
-        <v>51.41594843526182</v>
+        <v>51.4159484352619</v>
       </c>
       <c r="G11">
-        <v>2.034160723438985</v>
+        <v>2.034160723439375</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.586882963427837</v>
+        <v>5.586882963427926</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.39828710095764</v>
+        <v>21.39828710095765</v>
       </c>
       <c r="N11">
-        <v>13.42469915772448</v>
+        <v>13.42469915772453</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.69520218255199</v>
+        <v>33.69520218255208</v>
       </c>
       <c r="C12">
-        <v>24.73128971463389</v>
+        <v>24.73128971463386</v>
       </c>
       <c r="D12">
-        <v>2.85583124361487</v>
+        <v>2.855831243614803</v>
       </c>
       <c r="E12">
-        <v>6.098763364292545</v>
+        <v>6.098763364292547</v>
       </c>
       <c r="F12">
         <v>51.97819822419304</v>
       </c>
       <c r="G12">
-        <v>2.030186700060008</v>
+        <v>2.030186700059889</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.58354879267819</v>
+        <v>5.583548792678241</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.70833965067143</v>
+        <v>21.70833965067148</v>
       </c>
       <c r="N12">
-        <v>13.37253430397627</v>
+        <v>13.37253430397623</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.59221315879979</v>
+        <v>33.59221315879981</v>
       </c>
       <c r="C13">
-        <v>24.65482795171748</v>
+        <v>24.65482795171751</v>
       </c>
       <c r="D13">
-        <v>2.851146769113924</v>
+        <v>2.851146769113991</v>
       </c>
       <c r="E13">
-        <v>6.096908102205974</v>
+        <v>6.09690810220603</v>
       </c>
       <c r="F13">
-        <v>51.85694896449585</v>
+        <v>51.85694896449582</v>
       </c>
       <c r="G13">
-        <v>2.031043204273423</v>
+        <v>2.031043204273288</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.584244663120084</v>
+        <v>5.584244663120089</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.64172831315333</v>
+        <v>21.64172831315332</v>
       </c>
       <c r="N13">
-        <v>13.38371542329336</v>
+        <v>13.38371542329333</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.25545496894166</v>
+        <v>33.25545496894176</v>
       </c>
       <c r="C14">
-        <v>24.40483878703615</v>
+        <v>24.40483878703618</v>
       </c>
       <c r="D14">
-        <v>2.835940015377676</v>
+        <v>2.835940015377608</v>
       </c>
       <c r="E14">
-        <v>6.090941877390271</v>
+        <v>6.090941877390333</v>
       </c>
       <c r="F14">
-        <v>51.4621344369784</v>
+        <v>51.46213443697847</v>
       </c>
       <c r="G14">
         <v>2.033834047144555</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.586598709852827</v>
+        <v>5.586598709852905</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.42386978513899</v>
+        <v>21.42386978513905</v>
       </c>
       <c r="N14">
         <v>13.42038362246724</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.04848778412212</v>
+        <v>33.04848778412193</v>
       </c>
       <c r="C15">
-        <v>24.25122016025733</v>
+        <v>24.25122016025731</v>
       </c>
       <c r="D15">
-        <v>2.826677960614819</v>
+        <v>2.826677960614549</v>
       </c>
       <c r="E15">
-        <v>6.087351499313728</v>
+        <v>6.087351499313534</v>
       </c>
       <c r="F15">
-        <v>51.22075352610737</v>
+        <v>51.22075352610725</v>
       </c>
       <c r="G15">
-        <v>2.035541841289283</v>
+        <v>2.035541841289418</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.588104994229179</v>
+        <v>5.588104994229098</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.28993831923658</v>
+        <v>21.28993831923653</v>
       </c>
       <c r="N15">
-        <v>13.4429981649133</v>
+        <v>13.44299816491332</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.85141634456774</v>
+        <v>31.85141634456782</v>
       </c>
       <c r="C16">
-        <v>23.36300700095511</v>
+        <v>23.36300700095524</v>
       </c>
       <c r="D16">
-        <v>2.774345799257009</v>
+        <v>2.774345799256877</v>
       </c>
       <c r="E16">
-        <v>6.06773587981656</v>
+        <v>6.067735879816514</v>
       </c>
       <c r="F16">
-        <v>49.84404799885582</v>
+        <v>49.84404799885595</v>
       </c>
       <c r="G16">
-        <v>2.045309493449038</v>
+        <v>2.045309493448773</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.597695886138403</v>
+        <v>5.597695886138456</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.51469358248865</v>
+        <v>20.51469358248873</v>
       </c>
       <c r="N16">
-        <v>13.5748535775596</v>
+        <v>13.57485357755953</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.10680214215825</v>
+        <v>31.10680214215831</v>
       </c>
       <c r="C17">
-        <v>22.81074256926776</v>
+        <v>22.81074256926795</v>
       </c>
       <c r="D17">
-        <v>2.742845110651189</v>
+        <v>2.742845110651323</v>
       </c>
       <c r="E17">
-        <v>6.056534468130788</v>
+        <v>6.056534468130862</v>
       </c>
       <c r="F17">
-        <v>49.00493669464183</v>
+        <v>49.00493669464178</v>
       </c>
       <c r="G17">
-        <v>2.051291521903037</v>
+        <v>2.051291521903034</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.604406886796556</v>
+        <v>5.604406886796522</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>20.03191754774257</v>
+        <v>20.03191754774264</v>
       </c>
       <c r="N17">
-        <v>13.65765661164758</v>
+        <v>13.65765661164747</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.67460094941709</v>
+        <v>30.67460094941721</v>
       </c>
       <c r="C18">
-        <v>22.49025953106042</v>
+        <v>22.49025953106043</v>
       </c>
       <c r="D18">
-        <v>2.724925706103924</v>
+        <v>2.724925706104192</v>
       </c>
       <c r="E18">
-        <v>6.050388513374954</v>
+        <v>6.050388513375111</v>
       </c>
       <c r="F18">
-        <v>48.52417266834785</v>
+        <v>48.52417266834792</v>
       </c>
       <c r="G18">
-        <v>2.054731078840876</v>
+        <v>2.054731078840869</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.608560216988252</v>
+        <v>5.60856021698823</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.77566724859284</v>
+        <v>19.77566724859286</v>
       </c>
       <c r="N18">
-        <v>13.70594858055524</v>
+        <v>13.70594858055515</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.52757851765467</v>
+        <v>30.5275785176546</v>
       </c>
       <c r="C19">
-        <v>22.38125141977978</v>
+        <v>22.38125141977972</v>
       </c>
       <c r="D19">
-        <v>2.71889064428568</v>
+        <v>2.718890644285544</v>
       </c>
       <c r="E19">
-        <v>6.048357761949244</v>
+        <v>6.048357761949156</v>
       </c>
       <c r="F19">
-        <v>48.36170482055284</v>
+        <v>48.36170482055277</v>
       </c>
       <c r="G19">
-        <v>2.055895686798039</v>
+        <v>2.055895686798172</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.610015881050587</v>
+        <v>5.610015881050619</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.70159690792353</v>
+        <v>19.70159690792354</v>
       </c>
       <c r="N19">
-        <v>13.72241050160613</v>
+        <v>13.72241050160608</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>31.18646991444711</v>
       </c>
       <c r="C20">
-        <v>22.86982279861651</v>
+        <v>22.86982279861635</v>
       </c>
       <c r="D20">
-        <v>2.746177330780682</v>
+        <v>2.746177330780547</v>
       </c>
       <c r="E20">
-        <v>6.057695964114766</v>
+        <v>6.057695964114687</v>
       </c>
       <c r="F20">
         <v>49.0940652660622</v>
       </c>
       <c r="G20">
-        <v>2.050654899052862</v>
+        <v>2.050654899052726</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.60366189764045</v>
+        <v>5.603661897640431</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.08359200727092</v>
+        <v>20.08359200727088</v>
       </c>
       <c r="N20">
-        <v>13.64877237914219</v>
+        <v>13.64877237914225</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.35451244343616</v>
+        <v>33.35451244343621</v>
       </c>
       <c r="C21">
-        <v>24.47836859435705</v>
+        <v>24.4783685943571</v>
       </c>
       <c r="D21">
-        <v>2.840395512764982</v>
+        <v>2.840395512764786</v>
       </c>
       <c r="E21">
-        <v>6.092680885069611</v>
+        <v>6.092680885069562</v>
       </c>
       <c r="F21">
-        <v>51.57800527047021</v>
+        <v>51.57800527047023</v>
       </c>
       <c r="G21">
         <v>2.033014675158443</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.585893788126537</v>
+        <v>5.585893788126527</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.48796088707764</v>
+        <v>21.48796088707769</v>
       </c>
       <c r="N21">
-        <v>13.40958088676637</v>
+        <v>13.4095808867663</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.74000983092417</v>
+        <v>34.74000983092411</v>
       </c>
       <c r="C22">
-        <v>25.50723116150031</v>
+        <v>25.50723116150018</v>
       </c>
       <c r="D22">
-        <v>2.904260062474556</v>
+        <v>2.904260062474487</v>
       </c>
       <c r="E22">
-        <v>6.118390000826772</v>
+        <v>6.118390000826747</v>
       </c>
       <c r="F22">
-        <v>53.22135206790099</v>
+        <v>53.22135206790097</v>
       </c>
       <c r="G22">
         <v>2.021417782208999</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.577132518034405</v>
+        <v>5.57713251803438</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.38371360416004</v>
+        <v>22.38371360416</v>
       </c>
       <c r="N22">
-        <v>13.26005239034213</v>
+        <v>13.26005239034212</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00323465863952</v>
+        <v>34.00323465863943</v>
       </c>
       <c r="C23">
-        <v>24.96000666040777</v>
+        <v>24.96000666040782</v>
       </c>
       <c r="D23">
-        <v>2.869937301006757</v>
+        <v>2.869937301006761</v>
       </c>
       <c r="E23">
-        <v>6.104397653740733</v>
+        <v>6.104397653740691</v>
       </c>
       <c r="F23">
-        <v>52.34224294813724</v>
+        <v>52.34224294813718</v>
       </c>
       <c r="G23">
-        <v>2.02761656003154</v>
+        <v>2.027616560031272</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.581535076518771</v>
+        <v>5.581535076518782</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.90752747693896</v>
+        <v>21.90752747693894</v>
       </c>
       <c r="N23">
-        <v>13.33918850997095</v>
+        <v>13.33918850997093</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.15046496004055</v>
+        <v>31.15046496004052</v>
       </c>
       <c r="C24">
-        <v>22.84312193472888</v>
+        <v>22.84312193472883</v>
       </c>
       <c r="D24">
-        <v>2.744670245208031</v>
+        <v>2.744670245208165</v>
       </c>
       <c r="E24">
-        <v>6.057169938497258</v>
+        <v>6.057169938497279</v>
       </c>
       <c r="F24">
-        <v>49.05376512386483</v>
+        <v>49.05376512386475</v>
       </c>
       <c r="G24">
-        <v>2.050942714367487</v>
+        <v>2.050942714367359</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.603997790629349</v>
+        <v>5.603997790629333</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>20.06023896062334</v>
+        <v>20.06023896062332</v>
       </c>
       <c r="N24">
-        <v>13.65278680844208</v>
+        <v>13.65278680844211</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.92220809982132</v>
+        <v>27.92220809982141</v>
       </c>
       <c r="C25">
-        <v>20.4502602400125</v>
+        <v>20.45026024001258</v>
       </c>
       <c r="D25">
-        <v>2.616958325310491</v>
+        <v>2.616958325310829</v>
       </c>
       <c r="E25">
-        <v>6.017489175681277</v>
+        <v>6.017489175681336</v>
       </c>
       <c r="F25">
-        <v>45.57780412440156</v>
+        <v>45.57780412440152</v>
       </c>
       <c r="G25">
-        <v>2.076083102225703</v>
+        <v>2.076083102226232</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.639342457366667</v>
+        <v>5.639342457366646</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.41088669693896</v>
+        <v>18.41088669693895</v>
       </c>
       <c r="N25">
-        <v>14.0162372386195</v>
+        <v>14.01623723861936</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.45778831486539</v>
+        <v>19.91372512190181</v>
       </c>
       <c r="C2">
-        <v>18.58225104419706</v>
+        <v>15.45417381626319</v>
       </c>
       <c r="D2">
-        <v>2.527107194563972</v>
+        <v>5.729957600214869</v>
       </c>
       <c r="E2">
-        <v>5.997053235622323</v>
+        <v>9.343281589118259</v>
       </c>
       <c r="F2">
-        <v>43.0708430686679</v>
+        <v>27.64462951150107</v>
       </c>
       <c r="G2">
-        <v>2.094828631267971</v>
+        <v>34.9525301628199</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.631851582938401</v>
       </c>
       <c r="J2">
-        <v>5.673876805832141</v>
+        <v>11.17625079871009</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.48047288931993</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.586941506052825</v>
       </c>
       <c r="M2">
-        <v>17.20742497498423</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.30224321913356</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.39905712463728</v>
+      </c>
+      <c r="P2">
+        <v>12.03833131433843</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.81115023169113</v>
+        <v>18.57185424937589</v>
       </c>
       <c r="C3">
-        <v>17.28833065072422</v>
+        <v>14.40938932884948</v>
       </c>
       <c r="D3">
-        <v>2.467946778512687</v>
+        <v>5.547428094477278</v>
       </c>
       <c r="E3">
-        <v>5.988295357230402</v>
+        <v>9.052269640196974</v>
       </c>
       <c r="F3">
-        <v>41.40393906720654</v>
+        <v>26.76387294394261</v>
       </c>
       <c r="G3">
-        <v>2.107782789061512</v>
+        <v>33.52543117939351</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.771467313658954</v>
       </c>
       <c r="J3">
-        <v>5.702152416465994</v>
+        <v>11.01276674530972</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.3799472998493</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.466170578280842</v>
       </c>
       <c r="M3">
-        <v>16.37966341958095</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.50639848540378</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.59508254626098</v>
+      </c>
+      <c r="P3">
+        <v>12.21732578030283</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.76623360052568</v>
+        <v>17.69912104788223</v>
       </c>
       <c r="C4">
-        <v>16.47717493539157</v>
+        <v>13.7301430143077</v>
       </c>
       <c r="D4">
-        <v>2.432233434064964</v>
+        <v>5.432231698528195</v>
       </c>
       <c r="E4">
-        <v>5.985315895909694</v>
+        <v>8.86809023771375</v>
       </c>
       <c r="F4">
-        <v>40.39698571014488</v>
+        <v>26.22447332506172</v>
       </c>
       <c r="G4">
-        <v>2.115889443340645</v>
+        <v>32.64537031268876</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.951505766740469</v>
       </c>
       <c r="J4">
-        <v>5.721791399027255</v>
+        <v>10.91769383462759</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.32928455057758</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.389921143210368</v>
       </c>
       <c r="M4">
-        <v>15.86634332023442</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>14.63656212494039</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.08047457205108</v>
+      </c>
+      <c r="P4">
+        <v>12.32928261564373</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.33204466944167</v>
+        <v>17.33112591834034</v>
       </c>
       <c r="C5">
-        <v>16.13913605847579</v>
+        <v>13.44379346242437</v>
       </c>
       <c r="D5">
-        <v>2.417801691538415</v>
+        <v>5.384532490174588</v>
       </c>
       <c r="E5">
-        <v>5.984689114605738</v>
+        <v>8.791675256694836</v>
       </c>
       <c r="F5">
-        <v>39.99098890054372</v>
+        <v>26.00525779639571</v>
       </c>
       <c r="G5">
-        <v>2.119235293326763</v>
+        <v>32.28623924768731</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.026335159503842</v>
       </c>
       <c r="J5">
-        <v>5.730350289818222</v>
+        <v>10.88027763078291</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.31132194419725</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.358319001410012</v>
       </c>
       <c r="M5">
-        <v>15.65608236511781</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.69078041933808</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.86566691714014</v>
+      </c>
+      <c r="P5">
+        <v>12.37544147637047</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.25944804865328</v>
+        <v>17.26927262531307</v>
       </c>
       <c r="C6">
-        <v>16.08255413632605</v>
+        <v>13.39566673947356</v>
       </c>
       <c r="D6">
-        <v>2.415411789979597</v>
+        <v>5.376567364924563</v>
       </c>
       <c r="E6">
-        <v>5.984620074878389</v>
+        <v>8.778905171352955</v>
       </c>
       <c r="F6">
-        <v>39.92384238399694</v>
+        <v>25.96890054920357</v>
       </c>
       <c r="G6">
-        <v>2.119793533130542</v>
+        <v>32.22659003669422</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.038849739657304</v>
       </c>
       <c r="J6">
-        <v>5.731804593107891</v>
+        <v>10.87414455022632</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.3084983666853</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.353039416148327</v>
       </c>
       <c r="M6">
-        <v>15.6211102165451</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.69985344872321</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.82969588932809</v>
+      </c>
+      <c r="P6">
+        <v>12.38313901154717</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.76041163572182</v>
+        <v>17.69420823491977</v>
       </c>
       <c r="C7">
-        <v>16.47264628641151</v>
+        <v>13.72631995519319</v>
       </c>
       <c r="D7">
-        <v>2.432038349572521</v>
+        <v>5.431591428532488</v>
       </c>
       <c r="E7">
-        <v>5.985305084610507</v>
+        <v>8.867065154498107</v>
       </c>
       <c r="F7">
-        <v>40.39149241466356</v>
+        <v>26.22151416754476</v>
       </c>
       <c r="G7">
-        <v>2.115934390362154</v>
+        <v>32.64052832317773</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.952508980558136</v>
       </c>
       <c r="J7">
-        <v>5.721904597849353</v>
+        <v>10.9171838668348</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.32903157007869</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.389497094441476</v>
       </c>
       <c r="M7">
-        <v>15.86351174049635</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>14.63728861251628</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.07759800190078</v>
+      </c>
+      <c r="P7">
+        <v>12.32990293697848</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.89711230476561</v>
+        <v>19.46113577442696</v>
       </c>
       <c r="C8">
-        <v>18.12873438543666</v>
+        <v>15.10172937676232</v>
       </c>
       <c r="D8">
-        <v>2.50656144567447</v>
+        <v>5.667685937132635</v>
       </c>
       <c r="E8">
-        <v>5.99352613554206</v>
+        <v>9.244093187732487</v>
       </c>
       <c r="F8">
-        <v>42.49275643082795</v>
+        <v>27.34079861011258</v>
       </c>
       <c r="G8">
-        <v>2.099265992940149</v>
+        <v>34.46151958610379</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.584259103844065</v>
       </c>
       <c r="J8">
-        <v>5.683142870509306</v>
+        <v>11.11877621324557</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.44345797434769</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.545732594783746</v>
       </c>
       <c r="M8">
-        <v>16.92316756435011</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.37161448072067</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.12628981699214</v>
+      </c>
+      <c r="P8">
+        <v>12.0996342077273</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.03124195896991</v>
+        <v>22.54210908713444</v>
       </c>
       <c r="C9">
-        <v>21.27208440023763</v>
+        <v>17.50220080348219</v>
       </c>
       <c r="D9">
-        <v>2.659197982081719</v>
+        <v>6.10480983857611</v>
       </c>
       <c r="E9">
-        <v>6.029436129031667</v>
+        <v>9.939130166900604</v>
       </c>
       <c r="F9">
-        <v>46.74022380934466</v>
+        <v>29.53688772640598</v>
       </c>
       <c r="G9">
-        <v>2.067593306114109</v>
+        <v>37.98463473274912</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.199568269775668</v>
       </c>
       <c r="J9">
-        <v>5.626050629923887</v>
+        <v>11.55644674385718</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.75982638342018</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.83566896200732</v>
       </c>
       <c r="M9">
-        <v>18.9550165272873</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.8907668481723</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.01058425288649</v>
+      </c>
+      <c r="P9">
+        <v>11.66345665865715</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.93586168872258</v>
+        <v>24.53967342013625</v>
       </c>
       <c r="C10">
-        <v>23.42564884966308</v>
+        <v>19.0262542413316</v>
       </c>
       <c r="D10">
-        <v>2.777968811826389</v>
+        <v>6.357929547029759</v>
       </c>
       <c r="E10">
-        <v>6.069054894216521</v>
+        <v>10.29041190449197</v>
       </c>
       <c r="F10">
-        <v>49.94005889561304</v>
+        <v>30.93146664186886</v>
       </c>
       <c r="G10">
-        <v>2.044626565501385</v>
+        <v>40.25802387771137</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.646998022571629</v>
       </c>
       <c r="J10">
-        <v>5.596970619785679</v>
+        <v>11.8492010108401</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.96814104139249</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.982286210298009</v>
       </c>
       <c r="M10">
-        <v>20.569416822376</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.56549801924595</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.15544317414846</v>
+      </c>
+      <c r="P10">
+        <v>11.35618213581991</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.21591796361255</v>
+        <v>25.08647134929499</v>
       </c>
       <c r="C11">
-        <v>24.37549173125487</v>
+        <v>19.14816959501687</v>
       </c>
       <c r="D11">
-        <v>2.834165763411911</v>
+        <v>6.042918334051954</v>
       </c>
       <c r="E11">
-        <v>6.090251504601471</v>
+        <v>9.420787338527848</v>
       </c>
       <c r="F11">
-        <v>51.4159484352619</v>
+        <v>29.76443534624728</v>
       </c>
       <c r="G11">
-        <v>2.034160723439375</v>
+        <v>38.98430827072563</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.384796241539826</v>
       </c>
       <c r="J11">
-        <v>5.586882963427926</v>
+        <v>11.5107750146816</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.33187729390399</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.635579821395317</v>
       </c>
       <c r="M11">
-        <v>21.39828710095765</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.42469915772453</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>17.54528295535583</v>
+      </c>
+      <c r="P11">
+        <v>11.28211572650703</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.69520218255208</v>
+        <v>25.14005481218654</v>
       </c>
       <c r="C12">
-        <v>24.73128971463386</v>
+        <v>18.93788903058053</v>
       </c>
       <c r="D12">
-        <v>2.855831243614803</v>
+        <v>5.741645557521841</v>
       </c>
       <c r="E12">
-        <v>6.098763364292547</v>
+        <v>8.788199113232983</v>
       </c>
       <c r="F12">
-        <v>51.97819822419304</v>
+        <v>28.45792388267054</v>
       </c>
       <c r="G12">
-        <v>2.030186700059889</v>
+        <v>37.39723826438607</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.505490963063822</v>
       </c>
       <c r="J12">
-        <v>5.583548792678241</v>
+        <v>11.15326297061068</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.73655427331907</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.42783399289116</v>
       </c>
       <c r="M12">
-        <v>21.70833965067148</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.37253430397623</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>16.78018074888776</v>
+      </c>
+      <c r="P12">
+        <v>11.30745679270546</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.59221315879981</v>
+        <v>24.8197020953106</v>
       </c>
       <c r="C13">
-        <v>24.65482795171751</v>
+        <v>18.45260610928655</v>
       </c>
       <c r="D13">
-        <v>2.851146769113991</v>
+        <v>5.430850228833921</v>
       </c>
       <c r="E13">
-        <v>6.09690810220603</v>
+        <v>8.327335558925348</v>
       </c>
       <c r="F13">
-        <v>51.85694896449582</v>
+        <v>26.93575039188109</v>
       </c>
       <c r="G13">
-        <v>2.031043204273288</v>
+        <v>35.42309935634258</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.733210758321242</v>
       </c>
       <c r="J13">
-        <v>5.584244663120089</v>
+        <v>10.75449503162491</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.13189819589384</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.321075166718544</v>
       </c>
       <c r="M13">
-        <v>21.64172831315332</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.38371542329333</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.82893573883299</v>
+      </c>
+      <c r="P13">
+        <v>11.40493959263221</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.25545496894176</v>
+        <v>24.42205735362688</v>
       </c>
       <c r="C14">
-        <v>24.40483878703618</v>
+        <v>17.98168084778666</v>
       </c>
       <c r="D14">
-        <v>2.835940015377608</v>
+        <v>5.212828679892021</v>
       </c>
       <c r="E14">
-        <v>6.090941877390333</v>
+        <v>8.128414440231133</v>
       </c>
       <c r="F14">
-        <v>51.46213443697847</v>
+        <v>25.76133681088498</v>
       </c>
       <c r="G14">
-        <v>2.033834047144555</v>
+        <v>33.84336385252584</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.632218204681788</v>
       </c>
       <c r="J14">
-        <v>5.586598709852905</v>
+        <v>10.45596638302843</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.70628943380179</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.310852045122203</v>
       </c>
       <c r="M14">
-        <v>21.42386978513905</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.42038362246724</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.0670712558121</v>
+      </c>
+      <c r="P14">
+        <v>11.50567075632587</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.04848778412193</v>
+        <v>24.24361168436575</v>
       </c>
       <c r="C15">
-        <v>24.25122016025731</v>
+        <v>17.80616801793592</v>
       </c>
       <c r="D15">
-        <v>2.826677960614549</v>
+        <v>5.155238638018997</v>
       </c>
       <c r="E15">
-        <v>6.087351499313534</v>
+        <v>8.091301720569206</v>
       </c>
       <c r="F15">
-        <v>51.22075352610725</v>
+        <v>25.43113354478304</v>
       </c>
       <c r="G15">
-        <v>2.035541841289418</v>
+        <v>33.37561864994261</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.835824118652667</v>
       </c>
       <c r="J15">
-        <v>5.588104994229098</v>
+        <v>10.37585154961831</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.60322755716686</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.313275814158301</v>
       </c>
       <c r="M15">
-        <v>21.28993831923653</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.44299816491332</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.84079431924363</v>
+      </c>
+      <c r="P15">
+        <v>11.54167348094642</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.85141634456782</v>
+        <v>23.46834529594739</v>
       </c>
       <c r="C16">
-        <v>23.36300700095524</v>
+        <v>17.24083986921844</v>
       </c>
       <c r="D16">
-        <v>2.774345799256877</v>
+        <v>5.099651628793641</v>
       </c>
       <c r="E16">
-        <v>6.067735879816514</v>
+        <v>8.011809123347351</v>
       </c>
       <c r="F16">
-        <v>49.84404799885595</v>
+        <v>25.0770191776679</v>
       </c>
       <c r="G16">
-        <v>2.045309493448773</v>
+        <v>32.68396978359955</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.548580204232223</v>
       </c>
       <c r="J16">
-        <v>5.597695886138456</v>
+        <v>10.32078107231782</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.62673026726537</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.264812290674583</v>
       </c>
       <c r="M16">
-        <v>20.51469358248873</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.57485357755953</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.49628691274218</v>
+      </c>
+      <c r="P16">
+        <v>11.63842597643713</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.10680214215831</v>
+        <v>23.08291781043518</v>
       </c>
       <c r="C17">
-        <v>22.81074256926795</v>
+        <v>17.06202833895004</v>
       </c>
       <c r="D17">
-        <v>2.742845110651323</v>
+        <v>5.172188629146133</v>
       </c>
       <c r="E17">
-        <v>6.056534468130862</v>
+        <v>8.033168150749352</v>
       </c>
       <c r="F17">
-        <v>49.00493669464178</v>
+        <v>25.44970946546005</v>
       </c>
       <c r="G17">
-        <v>2.051291521903034</v>
+        <v>33.02984813482259</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.797725125939816</v>
       </c>
       <c r="J17">
-        <v>5.604406886796522</v>
+        <v>10.44060574799507</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.87341497544529</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.221664957308517</v>
       </c>
       <c r="M17">
-        <v>20.03191754774264</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.65765661164747</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.65175930390008</v>
+      </c>
+      <c r="P17">
+        <v>11.66113341737059</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.67460094941721</v>
+        <v>23.00105219771347</v>
       </c>
       <c r="C18">
-        <v>22.49025953106043</v>
+        <v>17.2050053345001</v>
       </c>
       <c r="D18">
-        <v>2.724925706104192</v>
+        <v>5.378542169824672</v>
       </c>
       <c r="E18">
-        <v>6.050388513375111</v>
+        <v>8.27588619106705</v>
       </c>
       <c r="F18">
-        <v>48.52417266834792</v>
+        <v>26.48192419925146</v>
       </c>
       <c r="G18">
-        <v>2.054731078840869</v>
+        <v>34.29710493855941</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.604650517674117</v>
       </c>
       <c r="J18">
-        <v>5.60856021698823</v>
+        <v>10.72057904879235</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.33537098399182</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.244499022968336</v>
       </c>
       <c r="M18">
-        <v>19.77566724859286</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.70594858055515</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>15.25678796654632</v>
+      </c>
+      <c r="P18">
+        <v>11.63232964627909</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>30.5275785176546</v>
+        <v>23.17116334271583</v>
       </c>
       <c r="C19">
-        <v>22.38125141977972</v>
+        <v>17.59448901374881</v>
       </c>
       <c r="D19">
-        <v>2.718890644285544</v>
+        <v>5.695825144624749</v>
       </c>
       <c r="E19">
-        <v>6.048357761949156</v>
+        <v>8.851646552731696</v>
       </c>
       <c r="F19">
-        <v>48.36170482055277</v>
+        <v>27.95307621400139</v>
       </c>
       <c r="G19">
-        <v>2.055895686798172</v>
+        <v>36.18239846861059</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.31363529745857</v>
       </c>
       <c r="J19">
-        <v>5.610015881050619</v>
+        <v>11.10583462434863</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.93682020240334</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.414066503013729</v>
       </c>
       <c r="M19">
-        <v>19.70159690792354</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.72241050160608</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.16693993568883</v>
+      </c>
+      <c r="P19">
+        <v>11.57665197767015</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.18646991444711</v>
+        <v>24.02839999666822</v>
       </c>
       <c r="C20">
-        <v>22.86982279861635</v>
+        <v>18.634372610767</v>
       </c>
       <c r="D20">
-        <v>2.746177330780547</v>
+        <v>6.290090963997076</v>
       </c>
       <c r="E20">
-        <v>6.057695964114687</v>
+        <v>10.19338750570287</v>
       </c>
       <c r="F20">
-        <v>49.0940652660622</v>
+        <v>30.55617988484207</v>
       </c>
       <c r="G20">
-        <v>2.050654899052726</v>
+        <v>39.65135546458913</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.529122047804465</v>
       </c>
       <c r="J20">
-        <v>5.603661897640431</v>
+        <v>11.76806166823946</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.90525590893304</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.941653240287304</v>
       </c>
       <c r="M20">
-        <v>20.08359200727088</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.64877237914225</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.85568746466377</v>
+      </c>
+      <c r="P20">
+        <v>11.4363804312354</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.35451244343621</v>
+        <v>25.54742531964085</v>
       </c>
       <c r="C21">
-        <v>24.4783685943571</v>
+        <v>19.84678601021115</v>
       </c>
       <c r="D21">
-        <v>2.840395512764786</v>
+        <v>6.558217736718927</v>
       </c>
       <c r="E21">
-        <v>6.092680885069562</v>
+        <v>10.65913312942449</v>
       </c>
       <c r="F21">
-        <v>51.57800527047023</v>
+        <v>31.94326638663457</v>
       </c>
       <c r="G21">
-        <v>2.033014675158443</v>
+        <v>41.79059775648554</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.890431412439692</v>
       </c>
       <c r="J21">
-        <v>5.585893788126527</v>
+        <v>12.08599595785972</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.2187865914542</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.139335206934916</v>
       </c>
       <c r="M21">
-        <v>21.48796088707769</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.4095808867663</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.89851239664412</v>
+      </c>
+      <c r="P21">
+        <v>11.19498616017091</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.74000983092411</v>
+        <v>26.48095196480257</v>
       </c>
       <c r="C22">
-        <v>25.50723116150018</v>
+        <v>20.57576851674939</v>
       </c>
       <c r="D22">
-        <v>2.904260062474487</v>
+        <v>6.703881565098907</v>
       </c>
       <c r="E22">
-        <v>6.118390000826747</v>
+        <v>10.89066301061374</v>
       </c>
       <c r="F22">
-        <v>53.22135206790097</v>
+        <v>32.73838055072258</v>
       </c>
       <c r="G22">
-        <v>2.021417782208999</v>
+        <v>43.03890482685966</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.114374952353933</v>
       </c>
       <c r="J22">
-        <v>5.57713251803438</v>
+        <v>12.27048759615679</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.39258038791374</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.237769932498876</v>
       </c>
       <c r="M22">
-        <v>22.38371360416</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.26005239034212</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.49253277671351</v>
+      </c>
+      <c r="P22">
+        <v>11.04072436904013</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.00323465863943</v>
+        <v>25.98636251470784</v>
       </c>
       <c r="C23">
-        <v>24.96000666040782</v>
+        <v>20.18950442081666</v>
       </c>
       <c r="D23">
-        <v>2.869937301006761</v>
+        <v>6.626437814315738</v>
       </c>
       <c r="E23">
-        <v>6.104397653740691</v>
+        <v>10.76754499006662</v>
       </c>
       <c r="F23">
-        <v>52.34224294813718</v>
+        <v>32.31445101623706</v>
       </c>
       <c r="G23">
-        <v>2.027616560031272</v>
+        <v>42.37383728669772</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.995166955831923</v>
       </c>
       <c r="J23">
-        <v>5.581535076518782</v>
+        <v>12.17158145026502</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.2986368024252</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.185377762675111</v>
       </c>
       <c r="M23">
-        <v>21.90752747693894</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.33918850997093</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.17742590444024</v>
+      </c>
+      <c r="P23">
+        <v>11.12297238435626</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.15046496004052</v>
+        <v>24.03245766275442</v>
       </c>
       <c r="C24">
-        <v>22.84312193472883</v>
+        <v>18.66448170817501</v>
       </c>
       <c r="D24">
-        <v>2.744670245208165</v>
+        <v>6.326578951788048</v>
       </c>
       <c r="E24">
-        <v>6.057169938497279</v>
+        <v>10.29123868422486</v>
       </c>
       <c r="F24">
-        <v>49.05376512386475</v>
+        <v>30.69989450829866</v>
       </c>
       <c r="G24">
-        <v>2.050942714367359</v>
+        <v>39.82991533050969</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.536499934188636</v>
       </c>
       <c r="J24">
-        <v>5.603997790629333</v>
+        <v>11.80662754301823</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.96843138596815</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.983720638413874</v>
       </c>
       <c r="M24">
-        <v>20.06023896062332</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.65278680844211</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.94171020774548</v>
+      </c>
+      <c r="P24">
+        <v>11.43648818599327</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.92220809982141</v>
+        <v>21.74923971125055</v>
       </c>
       <c r="C25">
-        <v>20.45026024001258</v>
+        <v>16.88417054725603</v>
       </c>
       <c r="D25">
-        <v>2.616958325310829</v>
+        <v>5.989457765821203</v>
       </c>
       <c r="E25">
-        <v>6.017489175681336</v>
+        <v>9.755923870589141</v>
       </c>
       <c r="F25">
-        <v>45.57780412440152</v>
+        <v>28.94394573900188</v>
       </c>
       <c r="G25">
-        <v>2.076083102226232</v>
+        <v>37.03888565680132</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.024786630307004</v>
       </c>
       <c r="J25">
-        <v>5.639342457366646</v>
+        <v>11.43348110798104</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.66380958432739</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.758962025774958</v>
       </c>
       <c r="M25">
-        <v>18.41088669693895</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.01623723861936</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>16.51996446197785</v>
+      </c>
+      <c r="P25">
+        <v>11.77994283455692</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_30/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_30/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.91372512190181</v>
+        <v>19.38885980326455</v>
       </c>
       <c r="C2">
-        <v>15.45417381626319</v>
+        <v>16.09502041782882</v>
       </c>
       <c r="D2">
-        <v>5.729957600214869</v>
+        <v>5.879599376368915</v>
       </c>
       <c r="E2">
-        <v>9.343281589118259</v>
+        <v>9.380560911330566</v>
       </c>
       <c r="F2">
-        <v>27.64462951150107</v>
+        <v>26.73369151143113</v>
       </c>
       <c r="G2">
-        <v>34.9525301628199</v>
+        <v>32.77180947206714</v>
       </c>
       <c r="H2">
-        <v>1.631851582938401</v>
+        <v>1.60429187202671</v>
       </c>
       <c r="J2">
-        <v>11.17625079871009</v>
+        <v>11.29890571857542</v>
       </c>
       <c r="K2">
-        <v>15.48047288931993</v>
+        <v>14.69018255223143</v>
       </c>
       <c r="L2">
-        <v>6.586941506052825</v>
+        <v>12.9849200233727</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>8.931464531152965</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.557417358813809</v>
       </c>
       <c r="O2">
-        <v>15.39905712463728</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.03833131433843</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.38234188183898</v>
+      </c>
+      <c r="R2">
+        <v>12.0254938536316</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.57185424937589</v>
+        <v>18.13113090300741</v>
       </c>
       <c r="C3">
-        <v>14.40938932884948</v>
+        <v>14.96518985691986</v>
       </c>
       <c r="D3">
-        <v>5.547428094477278</v>
+        <v>5.694165637302624</v>
       </c>
       <c r="E3">
-        <v>9.052269640196974</v>
+        <v>9.107850799970048</v>
       </c>
       <c r="F3">
-        <v>26.76387294394261</v>
+        <v>25.95456272763651</v>
       </c>
       <c r="G3">
-        <v>33.52543117939351</v>
+        <v>31.5388965626429</v>
       </c>
       <c r="H3">
-        <v>1.771467313658954</v>
+        <v>1.776990445169318</v>
       </c>
       <c r="J3">
-        <v>11.01276674530972</v>
+        <v>11.13245949431535</v>
       </c>
       <c r="K3">
-        <v>15.3799472998493</v>
+        <v>14.65758116169089</v>
       </c>
       <c r="L3">
-        <v>6.466170578280842</v>
+        <v>13.08216900966084</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.744755945938982</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.450320456481425</v>
       </c>
       <c r="O3">
-        <v>14.59508254626098</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.21732578030283</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.58270683303167</v>
+      </c>
+      <c r="R3">
+        <v>12.17506731382609</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.69912104788223</v>
+        <v>17.31250067753151</v>
       </c>
       <c r="C4">
-        <v>13.7301430143077</v>
+        <v>14.23024750471473</v>
       </c>
       <c r="D4">
-        <v>5.432231698528195</v>
+        <v>5.577596056074845</v>
       </c>
       <c r="E4">
-        <v>8.86809023771375</v>
+        <v>8.935572258899796</v>
       </c>
       <c r="F4">
-        <v>26.22447332506172</v>
+        <v>25.47649760992377</v>
       </c>
       <c r="G4">
-        <v>32.64537031268876</v>
+        <v>30.78230267569195</v>
       </c>
       <c r="H4">
-        <v>1.951505766740469</v>
+        <v>1.942809502720622</v>
       </c>
       <c r="J4">
-        <v>10.91769383462759</v>
+        <v>11.0316555276284</v>
       </c>
       <c r="K4">
-        <v>15.32928455057758</v>
+        <v>14.64571908421375</v>
       </c>
       <c r="L4">
-        <v>6.389921143210368</v>
+        <v>13.14334713319273</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.65871644873317</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.382706885532702</v>
       </c>
       <c r="O4">
-        <v>14.08047457205108</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.32928261564373</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.07039104606834</v>
+      </c>
+      <c r="R4">
+        <v>12.26931142234881</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.33112591834034</v>
+        <v>16.96718540120013</v>
       </c>
       <c r="C5">
-        <v>13.44379346242437</v>
+        <v>13.92032536686068</v>
       </c>
       <c r="D5">
-        <v>5.384532490174588</v>
+        <v>5.529454683272161</v>
       </c>
       <c r="E5">
-        <v>8.791675256694836</v>
+        <v>8.864182407461463</v>
       </c>
       <c r="F5">
-        <v>26.00525779639571</v>
+        <v>25.2819524521548</v>
       </c>
       <c r="G5">
-        <v>32.28623924768731</v>
+        <v>30.47443348209157</v>
       </c>
       <c r="H5">
-        <v>2.026335159503842</v>
+        <v>2.011770712615105</v>
       </c>
       <c r="J5">
-        <v>10.88027763078291</v>
+        <v>10.9909409606654</v>
       </c>
       <c r="K5">
-        <v>15.31132194419725</v>
+        <v>14.64284592371512</v>
       </c>
       <c r="L5">
-        <v>6.358319001410012</v>
+        <v>13.16864389696263</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.630933505810081</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.354685603531126</v>
       </c>
       <c r="O5">
-        <v>13.86566691714014</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.37544147637047</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.85642467581374</v>
+      </c>
+      <c r="R5">
+        <v>12.30832977308153</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.26927262531307</v>
+        <v>16.90913685473618</v>
       </c>
       <c r="C6">
-        <v>13.39566673947356</v>
+        <v>13.86823146946502</v>
       </c>
       <c r="D6">
-        <v>5.376567364924563</v>
+        <v>5.521423656545354</v>
       </c>
       <c r="E6">
-        <v>8.778905171352955</v>
+        <v>8.852257579677023</v>
       </c>
       <c r="F6">
-        <v>25.96890054920357</v>
+        <v>25.24967040541119</v>
       </c>
       <c r="G6">
-        <v>32.22659003669422</v>
+        <v>30.4233497057519</v>
       </c>
       <c r="H6">
-        <v>2.038849739657304</v>
+        <v>2.023306276656607</v>
       </c>
       <c r="J6">
-        <v>10.87414455022632</v>
+        <v>10.98420269126707</v>
       </c>
       <c r="K6">
-        <v>15.3084983666853</v>
+        <v>14.64248463609908</v>
       </c>
       <c r="L6">
-        <v>6.353039416148327</v>
+        <v>13.17286645221372</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.626760820872391</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.350004377056839</v>
       </c>
       <c r="O6">
-        <v>13.82969588932809</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.38313901154717</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.82058774934512</v>
+      </c>
+      <c r="R6">
+        <v>12.31484601368614</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.69420823491977</v>
+        <v>17.2995467867102</v>
       </c>
       <c r="C7">
-        <v>13.72631995519319</v>
+        <v>14.21028564664786</v>
       </c>
       <c r="D7">
-        <v>5.431591428532488</v>
+        <v>5.581088885524284</v>
       </c>
       <c r="E7">
-        <v>8.867065154498107</v>
+        <v>8.936302826703702</v>
       </c>
       <c r="F7">
-        <v>26.22151416754476</v>
+        <v>25.45181179746456</v>
       </c>
       <c r="G7">
-        <v>32.64052832317773</v>
+        <v>30.86208425533083</v>
       </c>
       <c r="H7">
-        <v>1.952508980558136</v>
+        <v>1.944571265745931</v>
       </c>
       <c r="J7">
-        <v>10.9171838668348</v>
+        <v>10.9766210325537</v>
       </c>
       <c r="K7">
-        <v>15.32903157007869</v>
+        <v>14.63517985403445</v>
       </c>
       <c r="L7">
-        <v>6.389497094441476</v>
+        <v>13.13500079784494</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.650929125809416</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.381919162714313</v>
       </c>
       <c r="O7">
-        <v>14.07759800190078</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.32990293697848</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.06305121885927</v>
+      </c>
+      <c r="R7">
+        <v>12.27016381576041</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.46113577442696</v>
+        <v>18.9392310204662</v>
       </c>
       <c r="C8">
-        <v>15.10172937676232</v>
+        <v>15.66563718249937</v>
       </c>
       <c r="D8">
-        <v>5.667685937132635</v>
+        <v>5.829648021194664</v>
       </c>
       <c r="E8">
-        <v>9.244093187732487</v>
+        <v>9.293131333498394</v>
       </c>
       <c r="F8">
-        <v>27.34079861011258</v>
+        <v>26.39450191784404</v>
       </c>
       <c r="G8">
-        <v>34.46151958610379</v>
+        <v>32.61348761129608</v>
       </c>
       <c r="H8">
-        <v>1.584259103844065</v>
+        <v>1.607328520128327</v>
       </c>
       <c r="J8">
-        <v>11.11877621324557</v>
+        <v>11.06436961470919</v>
       </c>
       <c r="K8">
-        <v>15.44345797434769</v>
+        <v>14.64277278209716</v>
       </c>
       <c r="L8">
-        <v>6.545732594783746</v>
+        <v>12.99133334357802</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>8.834803879430899</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.519616860996526</v>
       </c>
       <c r="O8">
-        <v>15.12628981699214</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.0996342077273</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.09716245693721</v>
+      </c>
+      <c r="R8">
+        <v>12.07818165631699</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.54210908713444</v>
+        <v>21.81977094285257</v>
       </c>
       <c r="C9">
-        <v>17.50220080348219</v>
+        <v>18.25327536602958</v>
       </c>
       <c r="D9">
-        <v>6.10480983857611</v>
+        <v>6.278491057864271</v>
       </c>
       <c r="E9">
-        <v>9.939130166900604</v>
+        <v>9.947116598845701</v>
       </c>
       <c r="F9">
-        <v>29.53688772640598</v>
+        <v>28.31967713528009</v>
       </c>
       <c r="G9">
-        <v>37.98463473274912</v>
+        <v>35.72549996686433</v>
       </c>
       <c r="H9">
-        <v>2.199568269775668</v>
+        <v>2.122497093488506</v>
       </c>
       <c r="J9">
-        <v>11.55644674385718</v>
+        <v>11.44556145111099</v>
       </c>
       <c r="K9">
-        <v>15.75982638342018</v>
+        <v>14.76479347994199</v>
       </c>
       <c r="L9">
-        <v>6.83566896200732</v>
+        <v>12.75308089468088</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.442863009420778</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.77652059503391</v>
       </c>
       <c r="O9">
-        <v>17.01058425288649</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.66345665865715</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.96633504424122</v>
+      </c>
+      <c r="R9">
+        <v>11.71930857483788</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.53967342013625</v>
+        <v>23.65047283491239</v>
       </c>
       <c r="C10">
-        <v>19.0262542413316</v>
+        <v>19.82074536934453</v>
       </c>
       <c r="D10">
-        <v>6.357929547029759</v>
+        <v>6.558171787600392</v>
       </c>
       <c r="E10">
-        <v>10.29041190449197</v>
+        <v>10.27628607910848</v>
       </c>
       <c r="F10">
-        <v>30.93146664186886</v>
+        <v>29.41768046824777</v>
       </c>
       <c r="G10">
-        <v>40.25802387771137</v>
+        <v>38.15112498222241</v>
       </c>
       <c r="H10">
-        <v>2.646998022571629</v>
+        <v>2.528057722070448</v>
       </c>
       <c r="J10">
-        <v>11.8492010108401</v>
+        <v>11.39393803283784</v>
       </c>
       <c r="K10">
-        <v>15.96814104139249</v>
+        <v>14.77195958462559</v>
       </c>
       <c r="L10">
-        <v>6.982286210298009</v>
+        <v>12.4965343161974</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.89973985807331</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.898839725060897</v>
       </c>
       <c r="O10">
-        <v>18.15544317414846</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.35618213581991</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.07794822292759</v>
+      </c>
+      <c r="R10">
+        <v>11.48064502278849</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.08647134929499</v>
+        <v>24.1216724323611</v>
       </c>
       <c r="C11">
-        <v>19.14816959501687</v>
+        <v>19.77364997189184</v>
       </c>
       <c r="D11">
-        <v>6.042918334051954</v>
+        <v>6.248596909414845</v>
       </c>
       <c r="E11">
-        <v>9.420787338527848</v>
+        <v>9.370950584199626</v>
       </c>
       <c r="F11">
-        <v>29.76443534624728</v>
+        <v>28.05204847171927</v>
       </c>
       <c r="G11">
-        <v>38.98430827072563</v>
+        <v>37.82892473239632</v>
       </c>
       <c r="H11">
-        <v>3.384796241539826</v>
+        <v>3.278601059338335</v>
       </c>
       <c r="J11">
-        <v>11.5107750146816</v>
+        <v>10.48824281740769</v>
       </c>
       <c r="K11">
-        <v>15.33187729390399</v>
+        <v>14.06773730544559</v>
       </c>
       <c r="L11">
-        <v>6.635579821395317</v>
+        <v>11.90447008936649</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.508607791978575</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.545175667071999</v>
       </c>
       <c r="O11">
-        <v>17.54528295535583</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.28211572650703</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>17.42402566768593</v>
+      </c>
+      <c r="R11">
+        <v>11.48486834774253</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.14005481218654</v>
+        <v>24.16829833820315</v>
       </c>
       <c r="C12">
-        <v>18.93788903058053</v>
+        <v>19.45322299670178</v>
       </c>
       <c r="D12">
-        <v>5.741645557521841</v>
+        <v>5.926857318197936</v>
       </c>
       <c r="E12">
-        <v>8.788199113232983</v>
+        <v>8.696482773311338</v>
       </c>
       <c r="F12">
-        <v>28.45792388267054</v>
+        <v>26.71165257662548</v>
       </c>
       <c r="G12">
-        <v>37.39723826438607</v>
+        <v>36.76807355081228</v>
       </c>
       <c r="H12">
-        <v>4.505490963063822</v>
+        <v>4.425383340350037</v>
       </c>
       <c r="J12">
-        <v>11.15326297061068</v>
+        <v>9.922527240003138</v>
       </c>
       <c r="K12">
-        <v>14.73655427331907</v>
+        <v>13.50055353210374</v>
       </c>
       <c r="L12">
-        <v>6.42783399289116</v>
+        <v>11.49153758600825</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.093426784792518</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.338542871841033</v>
       </c>
       <c r="O12">
-        <v>16.78018074888776</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.30745679270546</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>16.64208452283112</v>
+      </c>
+      <c r="R12">
+        <v>11.55841985909183</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.8197020953106</v>
+        <v>23.9093523757584</v>
       </c>
       <c r="C13">
-        <v>18.45260610928655</v>
+        <v>18.92255013923332</v>
       </c>
       <c r="D13">
-        <v>5.430850228833921</v>
+        <v>5.569394720548265</v>
       </c>
       <c r="E13">
-        <v>8.327335558925348</v>
+        <v>8.193863523421896</v>
       </c>
       <c r="F13">
-        <v>26.93575039188109</v>
+        <v>25.32826782633857</v>
       </c>
       <c r="G13">
-        <v>35.42309935634258</v>
+        <v>34.85321142699734</v>
       </c>
       <c r="H13">
-        <v>5.733210758321242</v>
+        <v>5.675968820475099</v>
       </c>
       <c r="J13">
-        <v>10.75449503162491</v>
+        <v>9.672258852680717</v>
       </c>
       <c r="K13">
-        <v>14.13189819589384</v>
+        <v>13.02328053097787</v>
       </c>
       <c r="L13">
-        <v>6.321075166718544</v>
+        <v>11.19341810996198</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>8.651052513125663</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.240274491439641</v>
       </c>
       <c r="O13">
-        <v>15.82893573883299</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.40493959263221</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.70199998791735</v>
+      </c>
+      <c r="R13">
+        <v>11.6729273727302</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.42205735362688</v>
+        <v>23.58574787703149</v>
       </c>
       <c r="C14">
-        <v>17.98168084778666</v>
+        <v>18.44700301677606</v>
       </c>
       <c r="D14">
-        <v>5.212828679892021</v>
+        <v>5.309809701366397</v>
       </c>
       <c r="E14">
-        <v>8.128414440231133</v>
+        <v>7.973128833368337</v>
       </c>
       <c r="F14">
-        <v>25.76133681088498</v>
+        <v>24.32720186013506</v>
       </c>
       <c r="G14">
-        <v>33.84336385252584</v>
+        <v>33.11131784809618</v>
       </c>
       <c r="H14">
-        <v>6.632218204681788</v>
+        <v>6.588161793394484</v>
       </c>
       <c r="J14">
-        <v>10.45596638302843</v>
+        <v>9.623625697710422</v>
       </c>
       <c r="K14">
-        <v>13.70628943380179</v>
+        <v>12.72831943723561</v>
       </c>
       <c r="L14">
-        <v>6.310852045122203</v>
+        <v>11.03137089468629</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>8.329120331456826</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.23933156014827</v>
       </c>
       <c r="O14">
-        <v>15.0670712558121</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.50567075632587</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.96002070655771</v>
+      </c>
+      <c r="R14">
+        <v>11.76885906429243</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.24361168436575</v>
+        <v>23.43904656499874</v>
       </c>
       <c r="C15">
-        <v>17.80616801793592</v>
+        <v>18.28190246004802</v>
       </c>
       <c r="D15">
-        <v>5.155238638018997</v>
+        <v>5.239274588462991</v>
       </c>
       <c r="E15">
-        <v>8.091301720569206</v>
+        <v>7.934459770592779</v>
       </c>
       <c r="F15">
-        <v>25.43113354478304</v>
+        <v>24.07154537936892</v>
       </c>
       <c r="G15">
-        <v>33.37561864994261</v>
+        <v>32.51738474960138</v>
       </c>
       <c r="H15">
-        <v>6.835824118652667</v>
+        <v>6.795410561757172</v>
       </c>
       <c r="J15">
-        <v>10.37585154961831</v>
+        <v>9.665755161577831</v>
       </c>
       <c r="K15">
-        <v>13.60322755716686</v>
+        <v>12.67417231739733</v>
       </c>
       <c r="L15">
-        <v>6.313275814158301</v>
+        <v>11.0120814432459</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>8.246038676913269</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.24535781228711</v>
       </c>
       <c r="O15">
-        <v>14.84079431924363</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.54167348094642</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.7437587911923</v>
+      </c>
+      <c r="R15">
+        <v>11.7968398241341</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.46834529594739</v>
+        <v>22.78199850532713</v>
       </c>
       <c r="C16">
-        <v>17.24083986921844</v>
+        <v>17.80961975571234</v>
       </c>
       <c r="D16">
-        <v>5.099651628793641</v>
+        <v>5.161579149254746</v>
       </c>
       <c r="E16">
-        <v>8.011809123347351</v>
+        <v>7.882226232512892</v>
       </c>
       <c r="F16">
-        <v>25.0770191776679</v>
+        <v>23.98735045562081</v>
       </c>
       <c r="G16">
-        <v>32.68396978359955</v>
+        <v>31.11875461618056</v>
       </c>
       <c r="H16">
-        <v>6.548580204232223</v>
+        <v>6.516779929689867</v>
       </c>
       <c r="J16">
-        <v>10.32078107231782</v>
+        <v>10.12776185414799</v>
       </c>
       <c r="K16">
-        <v>13.62673026726537</v>
+        <v>12.8406304621512</v>
       </c>
       <c r="L16">
-        <v>6.264812290674583</v>
+        <v>11.20486330808035</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>8.205525628431147</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.208757295942962</v>
       </c>
       <c r="O16">
-        <v>14.49628691274218</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.63842597643713</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.44242926902341</v>
+      </c>
+      <c r="R16">
+        <v>11.83749889078202</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.08291781043518</v>
+        <v>22.43737050406532</v>
       </c>
       <c r="C17">
-        <v>17.06202833895004</v>
+        <v>17.68767308714169</v>
       </c>
       <c r="D17">
-        <v>5.172188629146133</v>
+        <v>5.239736972445353</v>
       </c>
       <c r="E17">
-        <v>8.033168150749352</v>
+        <v>7.928824928728193</v>
       </c>
       <c r="F17">
-        <v>25.44970946546005</v>
+        <v>24.44552093042558</v>
       </c>
       <c r="G17">
-        <v>33.02984813482259</v>
+        <v>31.11816514980427</v>
       </c>
       <c r="H17">
-        <v>5.797725125939816</v>
+        <v>5.767036239110157</v>
       </c>
       <c r="J17">
-        <v>10.44060574799507</v>
+        <v>10.45302912409923</v>
       </c>
       <c r="K17">
-        <v>13.87341497544529</v>
+        <v>13.11501064928702</v>
       </c>
       <c r="L17">
-        <v>6.221664957308517</v>
+        <v>11.43933988209844</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>8.336347556814054</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.169362224954806</v>
       </c>
       <c r="O17">
-        <v>14.65175930390008</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.66113341737059</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.61522835984002</v>
+      </c>
+      <c r="R17">
+        <v>11.82643935773663</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.00105219771347</v>
+        <v>22.34683157518457</v>
       </c>
       <c r="C18">
-        <v>17.2050053345001</v>
+        <v>17.88800751110568</v>
       </c>
       <c r="D18">
-        <v>5.378542169824672</v>
+        <v>5.468268998010173</v>
       </c>
       <c r="E18">
-        <v>8.27588619106705</v>
+        <v>8.198574792004582</v>
       </c>
       <c r="F18">
-        <v>26.48192419925146</v>
+        <v>25.45698661728533</v>
       </c>
       <c r="G18">
-        <v>34.29710493855941</v>
+        <v>32.15580476582367</v>
       </c>
       <c r="H18">
-        <v>4.604650517674117</v>
+        <v>4.567386688036826</v>
       </c>
       <c r="J18">
-        <v>10.72057904879235</v>
+        <v>10.79236460421413</v>
       </c>
       <c r="K18">
-        <v>14.33537098399182</v>
+        <v>13.53269033348865</v>
       </c>
       <c r="L18">
-        <v>6.244499022968336</v>
+        <v>11.7541085573059</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>8.636864972954033</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.190199004699191</v>
       </c>
       <c r="O18">
-        <v>15.25678796654632</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.63232964627909</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.22508721264162</v>
+      </c>
+      <c r="R18">
+        <v>11.77245213243026</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.17116334271583</v>
+        <v>22.47516411257453</v>
       </c>
       <c r="C19">
-        <v>17.59448901374881</v>
+        <v>18.3408982185213</v>
       </c>
       <c r="D19">
-        <v>5.695825144624749</v>
+        <v>5.816643600703559</v>
       </c>
       <c r="E19">
-        <v>8.851646552731696</v>
+        <v>8.802466076102817</v>
       </c>
       <c r="F19">
-        <v>27.95307621400139</v>
+        <v>26.84228746119501</v>
       </c>
       <c r="G19">
-        <v>36.18239846861059</v>
+        <v>33.85799854230461</v>
       </c>
       <c r="H19">
-        <v>3.31363529745857</v>
+        <v>3.257409635184617</v>
       </c>
       <c r="J19">
-        <v>11.10583462434863</v>
+        <v>11.15751301721259</v>
       </c>
       <c r="K19">
-        <v>14.93682020240334</v>
+        <v>14.04459228522648</v>
       </c>
       <c r="L19">
-        <v>6.414066503013729</v>
+        <v>12.11841300224994</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.05529541329842</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.353888562092212</v>
       </c>
       <c r="O19">
-        <v>16.16693993568883</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.57665197767015</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>16.1328532436811</v>
+      </c>
+      <c r="R19">
+        <v>11.69531826488051</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.02839999666822</v>
+        <v>23.20544129280794</v>
       </c>
       <c r="C20">
-        <v>18.634372610767</v>
+        <v>19.4607285969257</v>
       </c>
       <c r="D20">
-        <v>6.290090963997076</v>
+        <v>6.469908466913356</v>
       </c>
       <c r="E20">
-        <v>10.19338750570287</v>
+        <v>10.17917266593592</v>
       </c>
       <c r="F20">
-        <v>30.55617988484207</v>
+        <v>29.18922340846861</v>
       </c>
       <c r="G20">
-        <v>39.65135546458913</v>
+        <v>37.25205336795837</v>
       </c>
       <c r="H20">
-        <v>2.529122047804465</v>
+        <v>2.42349758455168</v>
       </c>
       <c r="J20">
-        <v>11.76806166823946</v>
+        <v>11.58350435008328</v>
       </c>
       <c r="K20">
-        <v>15.90525590893304</v>
+        <v>14.79935097748821</v>
       </c>
       <c r="L20">
-        <v>6.941653240287304</v>
+        <v>12.58511391596534</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.800579740629392</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.865686487406339</v>
       </c>
       <c r="O20">
-        <v>17.85568746466377</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.4363804312354</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.79999056526941</v>
+      </c>
+      <c r="R20">
+        <v>11.53943871414996</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.54742531964085</v>
+        <v>24.47273749559861</v>
       </c>
       <c r="C21">
-        <v>19.84678601021115</v>
+        <v>20.49690525845247</v>
       </c>
       <c r="D21">
-        <v>6.558217736718927</v>
+        <v>6.835653199225759</v>
       </c>
       <c r="E21">
-        <v>10.65913312942449</v>
+        <v>10.66555872475929</v>
       </c>
       <c r="F21">
-        <v>31.94326638663457</v>
+        <v>29.97268258839879</v>
       </c>
       <c r="G21">
-        <v>41.79059775648554</v>
+        <v>40.78216341356292</v>
       </c>
       <c r="H21">
-        <v>2.890431412439692</v>
+        <v>2.739029242510518</v>
       </c>
       <c r="J21">
-        <v>12.08599595785972</v>
+        <v>10.70317374084761</v>
       </c>
       <c r="K21">
-        <v>16.2187865914542</v>
+        <v>14.74268531099922</v>
       </c>
       <c r="L21">
-        <v>7.139335206934916</v>
+        <v>12.34174703839873</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.11648435344367</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.038454634094883</v>
       </c>
       <c r="O21">
-        <v>18.89851239664412</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.19498616017091</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.74899202033473</v>
+      </c>
+      <c r="R21">
+        <v>11.36453511266692</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.48095196480257</v>
+        <v>25.24337947096561</v>
       </c>
       <c r="C22">
-        <v>20.57576851674939</v>
+        <v>21.09711792855239</v>
       </c>
       <c r="D22">
-        <v>6.703881565098907</v>
+        <v>7.048360702377895</v>
       </c>
       <c r="E22">
-        <v>10.89066301061374</v>
+        <v>10.91255805587067</v>
       </c>
       <c r="F22">
-        <v>32.73838055072258</v>
+        <v>30.36134152796223</v>
       </c>
       <c r="G22">
-        <v>43.03890482685966</v>
+        <v>43.0150154527608</v>
       </c>
       <c r="H22">
-        <v>3.114374952353933</v>
+        <v>2.933792662722938</v>
       </c>
       <c r="J22">
-        <v>12.27048759615679</v>
+        <v>10.0671630297903</v>
       </c>
       <c r="K22">
-        <v>16.39258038791374</v>
+        <v>14.66374055623091</v>
       </c>
       <c r="L22">
-        <v>7.237769932498876</v>
+        <v>12.15333808374274</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.29531295843038</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.121406848821044</v>
       </c>
       <c r="O22">
-        <v>19.49253277671351</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.04072436904013</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.27872237390241</v>
+      </c>
+      <c r="R22">
+        <v>11.26111506397806</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.98636251470784</v>
+        <v>24.85118826766197</v>
       </c>
       <c r="C23">
-        <v>20.18950442081666</v>
+        <v>20.80912594439083</v>
       </c>
       <c r="D23">
-        <v>6.626437814315738</v>
+        <v>6.925111403179701</v>
       </c>
       <c r="E23">
-        <v>10.76754499006662</v>
+        <v>10.77647967421127</v>
       </c>
       <c r="F23">
-        <v>32.31445101623706</v>
+        <v>30.20320434092897</v>
       </c>
       <c r="G23">
-        <v>42.37383728669772</v>
+        <v>41.64587322097815</v>
       </c>
       <c r="H23">
-        <v>2.995166955831923</v>
+        <v>2.831597702174419</v>
       </c>
       <c r="J23">
-        <v>12.17158145026502</v>
+        <v>10.5268326262382</v>
       </c>
       <c r="K23">
-        <v>16.2986368024252</v>
+        <v>14.73160675584096</v>
       </c>
       <c r="L23">
-        <v>7.185377762675111</v>
+        <v>12.27085839367002</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.22118186835379</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.077883581229264</v>
       </c>
       <c r="O23">
-        <v>19.17742590444024</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.12297238435626</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.00706013076589</v>
+      </c>
+      <c r="R23">
+        <v>11.31311381715381</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.03245766275442</v>
+        <v>23.20690301880942</v>
       </c>
       <c r="C24">
-        <v>18.66448170817501</v>
+        <v>19.49822183079655</v>
       </c>
       <c r="D24">
-        <v>6.326578951788048</v>
+        <v>6.508890440915899</v>
       </c>
       <c r="E24">
-        <v>10.29123868422486</v>
+        <v>10.27973193039362</v>
       </c>
       <c r="F24">
-        <v>30.69989450829866</v>
+        <v>29.32813328376291</v>
       </c>
       <c r="G24">
-        <v>39.82991533050969</v>
+        <v>37.403180410695</v>
       </c>
       <c r="H24">
-        <v>2.536499934188636</v>
+        <v>2.430512669541876</v>
       </c>
       <c r="J24">
-        <v>11.80662754301823</v>
+        <v>11.62755935022684</v>
       </c>
       <c r="K24">
-        <v>15.96843138596815</v>
+        <v>14.8555792043936</v>
       </c>
       <c r="L24">
-        <v>6.983720638413874</v>
+        <v>12.62753044861846</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.842450745353631</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.907477395181314</v>
       </c>
       <c r="O24">
-        <v>17.94171020774548</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.43648818599327</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.88631885444038</v>
+      </c>
+      <c r="R24">
+        <v>11.53581648012245</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.74923971125055</v>
+        <v>21.08920741750349</v>
       </c>
       <c r="C25">
-        <v>16.88417054725603</v>
+        <v>17.60631954677535</v>
       </c>
       <c r="D25">
-        <v>5.989457765821203</v>
+        <v>6.154257626228326</v>
       </c>
       <c r="E25">
-        <v>9.755923870589141</v>
+        <v>9.772208813919727</v>
       </c>
       <c r="F25">
-        <v>28.94394573900188</v>
+        <v>27.82907790264454</v>
       </c>
       <c r="G25">
-        <v>37.03888565680132</v>
+        <v>34.7794631516865</v>
       </c>
       <c r="H25">
-        <v>2.024786630307004</v>
+        <v>1.963336784034329</v>
       </c>
       <c r="J25">
-        <v>11.43348110798104</v>
+        <v>11.41491846528099</v>
       </c>
       <c r="K25">
-        <v>15.66380958432739</v>
+        <v>14.73836389888189</v>
       </c>
       <c r="L25">
-        <v>6.758962025774958</v>
+        <v>12.82682846446979</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.267920400899186</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.709055019680781</v>
       </c>
       <c r="O25">
-        <v>16.51996446197785</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.77994283455692</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.48569221917741</v>
+      </c>
+      <c r="R25">
+        <v>11.81348863845833</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
